--- a/transaction.xlsx
+++ b/transaction.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notification" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,40 +434,214 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-10-17 15:02:40</t>
-        </is>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>18:08:32</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-10-17 15:09:21</t>
-        </is>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>18:0
+:08</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-10-17 15:12:36</t>
-        </is>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18:08:41</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>18:08:47</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>18:08:52</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>18:08:57</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>18:09:02</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">18:09:7
+</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:09:92</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12:09:37</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18:09:45</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>13:09:40</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13:09:55</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18:10:05</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>18:10:10</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13:10:
+</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18:10:22</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18:10:27</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>18:10:37</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
